--- a/student_data/student data.xlsx
+++ b/student_data/student data.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\nsti-feedback\student_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CB4462-0895-4599-A2B2-B8F895D55C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37260D5E-D229-4FF9-B15C-B5BE702DBA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$542</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="528">
   <si>
     <r>
       <rPr>
@@ -5044,6 +5057,27 @@
   </si>
   <si>
     <t>trade</t>
+  </si>
+  <si>
+    <t>00521542</t>
+  </si>
+  <si>
+    <t>00238310</t>
+  </si>
+  <si>
+    <t>00752892</t>
+  </si>
+  <si>
+    <t>00833669</t>
+  </si>
+  <si>
+    <t>00attendence_Id</t>
+  </si>
+  <si>
+    <t>00710374</t>
+  </si>
+  <si>
+    <t>00784761</t>
   </si>
 </sst>
 </file>
@@ -5120,7 +5154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5148,17 +5182,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5466,8 +5503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="I509" sqref="I509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13069,4 +13106,8175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AF936B-74CB-4BC8-A75C-F3B8F0D31E6B}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E542"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="61.5" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>7316484</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>57316128</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>21342110</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44263929</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>63513687</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1371178</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>49422886</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>74451769</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>29469956</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>41059678</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>21972602</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>35666143</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>73104103</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>24499116</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>14737045</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>521542</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>19284259</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>8013406</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>88994968</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>23008850</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>68891736</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>17215131</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>65657874</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>63190280</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>91114768</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>21515402</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>38766310</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>24024487</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>4557419</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>58033118</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31467605</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>92096062</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>31517162</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>2910013</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>26452162</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>49265004</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>5338447</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>32128627</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>44805388</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>36578545</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>32945594</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>18168600</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>76404016</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>75382045</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>7847318</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>36758779</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>65359097</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>59939922</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>8019477</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>72334853</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>36647607</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>11213112</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>76473334</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>89652249</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>1001932</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>4706594</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>73720611</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>61376840</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>49677765</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>44706876</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>65815180</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>81505285</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>52173882</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>95484688</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>7828362</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>94727072</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>48844188</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>83987943</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>76040833</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>52455577</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>24722855</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>25899984</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>51909586</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>30405263</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>78175898</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>84908842</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>26784792</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>27052547</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>27118326</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>98629420</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>39551243</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>4281473</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>35778215</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>238310</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>37928143</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>57293982</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>40160886</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>70764082</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>48702735</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>61593066</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>83144748</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>98598864</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>62366957</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>4885730</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>18019244</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>66343367</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>39536613</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>82779154</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>1742409</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>99055402</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>94710215</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>30886913</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>62512608</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>86293350</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>74293642</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>60268649</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>41478625</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>23439852</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>65389300</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>79837536</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>1960065</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>78431283</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>16748181</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>60064094</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>94093720</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>72086729</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>89392452</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>19440054</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>80098837</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>31756449</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>17956566</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>99540974</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>5536079</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>88300757</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>52642855</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>82819135</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>13085755</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>67873705</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>29652280</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>66972889</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>51965544</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>4028806</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>88343096</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>26809963</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>61226769</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>54368834</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>49955462</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>65061766</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>68041444</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>87006098</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>6846754</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>80448259</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>62398430</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>90353014</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>28688978</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>33442863</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="6">
+        <v>47822245</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
+        <v>4175635</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="6">
+        <v>60571882</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
+        <v>96882166</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
+        <v>79995748</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>13929176</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>15679158</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>83513074</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>4500503</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
+        <v>92487679</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="6">
+        <v>64221739</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="6">
+        <v>40700863</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
+        <v>37964459</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
+        <v>49241299</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="6">
+        <v>52214405</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
+        <v>93484961</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <v>50916189</v>
+      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
+        <v>36825890</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>6366700</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
+        <v>65967720</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>752892</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>67541533</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>14586222</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
+        <v>12171961</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>93596545</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>33797646</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
+        <v>88353158</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>81752649</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
+        <v>86237751</v>
+      </c>
+      <c r="B176" s="6"/>
+      <c r="C176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
+        <v>66768649</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
+        <v>18686904</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6">
+        <v>9714116</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>46502604</v>
+      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>2359799</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>9861693</v>
+      </c>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>97705737</v>
+      </c>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>76767374</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>70788130</v>
+      </c>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>53118805</v>
+      </c>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>61247911</v>
+      </c>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>52307418</v>
+      </c>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>46888896</v>
+      </c>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>31315753</v>
+      </c>
+      <c r="B190" s="4"/>
+      <c r="C190" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>63912465</v>
+      </c>
+      <c r="B191" s="4"/>
+      <c r="C191" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>27427379</v>
+      </c>
+      <c r="B192" s="4"/>
+      <c r="C192" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>4545163</v>
+      </c>
+      <c r="B193" s="4"/>
+      <c r="C193" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>97804153</v>
+      </c>
+      <c r="B194" s="4"/>
+      <c r="C194" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>51651068</v>
+      </c>
+      <c r="B195" s="4"/>
+      <c r="C195" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>58659629</v>
+      </c>
+      <c r="B196" s="4"/>
+      <c r="C196" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>92367239</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>49386972</v>
+      </c>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>48951906</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>65426224</v>
+      </c>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>55986783</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="C201" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>42886092</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>56859212</v>
+      </c>
+      <c r="B203" s="4"/>
+      <c r="C203" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>45343500</v>
+      </c>
+      <c r="B204" s="4"/>
+      <c r="C204" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>30159756</v>
+      </c>
+      <c r="B205" s="4"/>
+      <c r="C205" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>36876846</v>
+      </c>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>32543754</v>
+      </c>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="6">
+        <v>91844361</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="6">
+        <v>30310150</v>
+      </c>
+      <c r="B209" s="6"/>
+      <c r="C209" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="6">
+        <v>7916499</v>
+      </c>
+      <c r="B210" s="6"/>
+      <c r="C210" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="6">
+        <v>68578292</v>
+      </c>
+      <c r="B211" s="6"/>
+      <c r="C211" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="6">
+        <v>20330861</v>
+      </c>
+      <c r="B212" s="6"/>
+      <c r="C212" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="6">
+        <v>22148791</v>
+      </c>
+      <c r="B213" s="6"/>
+      <c r="C213" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6">
+        <v>70188802</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="6">
+        <v>15224370</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="6">
+        <v>710374</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6">
+        <v>80736915</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
+        <v>44632193</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="6">
+        <v>86660137</v>
+      </c>
+      <c r="B219" s="6"/>
+      <c r="C219" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="6">
+        <v>87156932</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="6">
+        <v>97533508</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="6">
+        <v>90749115</v>
+      </c>
+      <c r="B222" s="6"/>
+      <c r="C222" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="6">
+        <v>34487294</v>
+      </c>
+      <c r="B223" s="6"/>
+      <c r="C223" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6">
+        <v>89091574</v>
+      </c>
+      <c r="B224" s="6"/>
+      <c r="C224" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="6">
+        <v>11470701</v>
+      </c>
+      <c r="B225" s="6"/>
+      <c r="C225" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="6">
+        <v>48670049</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="6">
+        <v>9302726</v>
+      </c>
+      <c r="B227" s="6"/>
+      <c r="C227" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="6">
+        <v>29880581</v>
+      </c>
+      <c r="B228" s="6"/>
+      <c r="C228" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="6">
+        <v>34703438</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="6">
+        <v>81206833</v>
+      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="6">
+        <v>12081813</v>
+      </c>
+      <c r="B231" s="6"/>
+      <c r="C231" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="6">
+        <v>56786554</v>
+      </c>
+      <c r="B232" s="6"/>
+      <c r="C232" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="6">
+        <v>89571188</v>
+      </c>
+      <c r="B233" s="6"/>
+      <c r="C233" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="6">
+        <v>39006497</v>
+      </c>
+      <c r="B234" s="6"/>
+      <c r="C234" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="6">
+        <v>54582359</v>
+      </c>
+      <c r="B235" s="6"/>
+      <c r="C235" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6">
+        <v>80000354</v>
+      </c>
+      <c r="B236" s="6"/>
+      <c r="C236" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6">
+        <v>15629585</v>
+      </c>
+      <c r="B237" s="6"/>
+      <c r="C237" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="6">
+        <v>20614266</v>
+      </c>
+      <c r="B238" s="6"/>
+      <c r="C238" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>91747472</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>56412095</v>
+      </c>
+      <c r="B240" s="3"/>
+      <c r="C240" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>57822519</v>
+      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>27140218</v>
+      </c>
+      <c r="B242" s="3"/>
+      <c r="C242" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>47085662</v>
+      </c>
+      <c r="B243" s="3"/>
+      <c r="C243" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D243" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>35066001</v>
+      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>16377901</v>
+      </c>
+      <c r="B245" s="3"/>
+      <c r="C245" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>10690942</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>21047704</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>80061743</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>81178031</v>
+      </c>
+      <c r="B249" s="3"/>
+      <c r="C249" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>87436579</v>
+      </c>
+      <c r="B250" s="3"/>
+      <c r="C250" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>18043483</v>
+      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>92979221</v>
+      </c>
+      <c r="B252" s="3"/>
+      <c r="C252" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>97521361</v>
+      </c>
+      <c r="B253" s="3"/>
+      <c r="C253" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>5837999</v>
+      </c>
+      <c r="B254" s="3"/>
+      <c r="C254" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>85679284</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>53770962</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>74842634</v>
+      </c>
+      <c r="B257" s="3"/>
+      <c r="C257" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>20839109</v>
+      </c>
+      <c r="B258" s="3"/>
+      <c r="C258" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>54508823</v>
+      </c>
+      <c r="B259" s="3"/>
+      <c r="C259" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>23163581</v>
+      </c>
+      <c r="B260" s="3"/>
+      <c r="C260" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>62941754</v>
+      </c>
+      <c r="B261" s="3"/>
+      <c r="C261" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>53330708</v>
+      </c>
+      <c r="B262" s="3"/>
+      <c r="C262" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E262" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>92074082</v>
+      </c>
+      <c r="B263" s="3"/>
+      <c r="C263" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>64595370</v>
+      </c>
+      <c r="B264" s="3"/>
+      <c r="C264" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>44430722</v>
+      </c>
+      <c r="B265" s="3"/>
+      <c r="C265" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>50853311</v>
+      </c>
+      <c r="B266" s="3"/>
+      <c r="C266" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>96483935</v>
+      </c>
+      <c r="B267" s="3"/>
+      <c r="C267" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>8229395</v>
+      </c>
+      <c r="B268" s="3"/>
+      <c r="C268" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>61264557</v>
+      </c>
+      <c r="B269" s="3"/>
+      <c r="C269" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>79860874</v>
+      </c>
+      <c r="B270" s="3"/>
+      <c r="C270" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>61464507</v>
+      </c>
+      <c r="B271" s="3"/>
+      <c r="C271" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>50901737</v>
+      </c>
+      <c r="B272" s="3"/>
+      <c r="C272" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>10811785</v>
+      </c>
+      <c r="B273" s="3"/>
+      <c r="C273" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>17536482</v>
+      </c>
+      <c r="B274" s="3"/>
+      <c r="C274" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>21249966</v>
+      </c>
+      <c r="B275" s="3"/>
+      <c r="C275" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="7">
+        <v>48109746</v>
+      </c>
+      <c r="B276" s="7"/>
+      <c r="C276" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>1035813</v>
+      </c>
+      <c r="B277" s="3"/>
+      <c r="C277" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>29318570</v>
+      </c>
+      <c r="B278" s="3"/>
+      <c r="C278" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D278" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>75509039</v>
+      </c>
+      <c r="B279" s="3"/>
+      <c r="C279" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="7">
+        <v>13498466</v>
+      </c>
+      <c r="B280" s="7"/>
+      <c r="C280" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E280" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="7">
+        <v>66927474</v>
+      </c>
+      <c r="B281" s="7"/>
+      <c r="C281" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="7">
+        <v>88908587</v>
+      </c>
+      <c r="B282" s="7"/>
+      <c r="C282" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E282" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="7">
+        <v>21994860</v>
+      </c>
+      <c r="B283" s="7"/>
+      <c r="C283" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="7">
+        <v>50866182</v>
+      </c>
+      <c r="B284" s="7"/>
+      <c r="C284" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="7">
+        <v>66691088</v>
+      </c>
+      <c r="B285" s="7"/>
+      <c r="C285" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="7">
+        <v>30107360</v>
+      </c>
+      <c r="B286" s="7"/>
+      <c r="C286" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>71620205</v>
+      </c>
+      <c r="B287" s="3"/>
+      <c r="C287" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>49978512</v>
+      </c>
+      <c r="B288" s="3"/>
+      <c r="C288" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="7">
+        <v>84380489</v>
+      </c>
+      <c r="B289" s="7"/>
+      <c r="C289" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>91751586</v>
+      </c>
+      <c r="B290" s="3"/>
+      <c r="C290" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>69665977</v>
+      </c>
+      <c r="B291" s="3"/>
+      <c r="C291" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>35118213</v>
+      </c>
+      <c r="B292" s="3"/>
+      <c r="C292" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="7">
+        <v>27273875</v>
+      </c>
+      <c r="B293" s="7"/>
+      <c r="C293" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="7">
+        <v>78555025</v>
+      </c>
+      <c r="B294" s="7"/>
+      <c r="C294" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="7">
+        <v>86021850</v>
+      </c>
+      <c r="B295" s="7"/>
+      <c r="C295" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="7">
+        <v>77667643</v>
+      </c>
+      <c r="B296" s="7"/>
+      <c r="C296" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E296" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="7">
+        <v>43299306</v>
+      </c>
+      <c r="B297" s="7"/>
+      <c r="C297" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="7">
+        <v>85419853</v>
+      </c>
+      <c r="B298" s="7"/>
+      <c r="C298" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="7">
+        <v>50982624</v>
+      </c>
+      <c r="B299" s="7"/>
+      <c r="C299" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="7">
+        <v>74291111</v>
+      </c>
+      <c r="B300" s="7"/>
+      <c r="C300" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="7">
+        <v>93631372</v>
+      </c>
+      <c r="B301" s="7"/>
+      <c r="C301" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="7">
+        <v>99287318</v>
+      </c>
+      <c r="B302" s="7"/>
+      <c r="C302" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="7">
+        <v>84458001</v>
+      </c>
+      <c r="B303" s="7"/>
+      <c r="C303" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>82473702</v>
+      </c>
+      <c r="B304" s="3"/>
+      <c r="C304" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D304" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>6887681</v>
+      </c>
+      <c r="B305" s="3"/>
+      <c r="C305" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>10227095</v>
+      </c>
+      <c r="B306" s="3"/>
+      <c r="C306" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>17630921</v>
+      </c>
+      <c r="B307" s="3"/>
+      <c r="C307" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>46374477</v>
+      </c>
+      <c r="B308" s="3"/>
+      <c r="C308" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="7">
+        <v>84983143</v>
+      </c>
+      <c r="B309" s="7"/>
+      <c r="C309" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="7">
+        <v>87300704</v>
+      </c>
+      <c r="B310" s="7"/>
+      <c r="C310" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="7">
+        <v>61490106</v>
+      </c>
+      <c r="B311" s="7"/>
+      <c r="C311" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="7">
+        <v>68504487</v>
+      </c>
+      <c r="B312" s="7"/>
+      <c r="C312" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="7">
+        <v>2108849</v>
+      </c>
+      <c r="B313" s="7"/>
+      <c r="C313" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D313" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="7">
+        <v>14855271</v>
+      </c>
+      <c r="B314" s="7"/>
+      <c r="C314" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D314" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="7">
+        <v>99513008</v>
+      </c>
+      <c r="B315" s="7"/>
+      <c r="C315" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E315" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="7">
+        <v>56255387</v>
+      </c>
+      <c r="B316" s="7"/>
+      <c r="C316" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D316" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E316" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="7">
+        <v>53736130</v>
+      </c>
+      <c r="B317" s="7"/>
+      <c r="C317" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <v>93635459</v>
+      </c>
+      <c r="B318" s="3"/>
+      <c r="C318" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E318" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <v>59598944</v>
+      </c>
+      <c r="B319" s="3"/>
+      <c r="C319" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="6">
+        <v>92194977</v>
+      </c>
+      <c r="B320" s="6"/>
+      <c r="C320" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D320" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="6">
+        <v>45446597</v>
+      </c>
+      <c r="B321" s="6"/>
+      <c r="C321" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D321" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="4">
+        <v>71578346</v>
+      </c>
+      <c r="B322" s="4"/>
+      <c r="C322" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D322" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E322" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="4">
+        <v>33248257</v>
+      </c>
+      <c r="B323" s="4"/>
+      <c r="C323" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D323" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="4">
+        <v>74591848</v>
+      </c>
+      <c r="B324" s="4"/>
+      <c r="C324" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D324" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="4">
+        <v>18942231</v>
+      </c>
+      <c r="B325" s="4"/>
+      <c r="C325" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D325" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="4">
+        <v>69454930</v>
+      </c>
+      <c r="B326" s="4"/>
+      <c r="C326" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D326" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="4">
+        <v>1076892</v>
+      </c>
+      <c r="B327" s="4"/>
+      <c r="C327" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D327" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="6">
+        <v>61764921</v>
+      </c>
+      <c r="B328" s="6"/>
+      <c r="C328" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="6">
+        <v>33629028</v>
+      </c>
+      <c r="B329" s="6"/>
+      <c r="C329" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D329" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="6">
+        <v>67359583</v>
+      </c>
+      <c r="B330" s="6"/>
+      <c r="C330" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="6">
+        <v>10012263</v>
+      </c>
+      <c r="B331" s="6"/>
+      <c r="C331" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D331" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="6">
+        <v>50229561</v>
+      </c>
+      <c r="B332" s="6"/>
+      <c r="C332" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="6">
+        <v>24682998</v>
+      </c>
+      <c r="B333" s="6"/>
+      <c r="C333" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D333" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="6">
+        <v>73254928</v>
+      </c>
+      <c r="B334" s="6"/>
+      <c r="C334" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D334" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="6">
+        <v>11883509</v>
+      </c>
+      <c r="B335" s="6"/>
+      <c r="C335" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D335" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="6">
+        <v>2477665</v>
+      </c>
+      <c r="B336" s="6"/>
+      <c r="C336" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D336" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="4">
+        <v>82901664</v>
+      </c>
+      <c r="B337" s="4"/>
+      <c r="C337" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D337" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="4">
+        <v>82544486</v>
+      </c>
+      <c r="B338" s="4"/>
+      <c r="C338" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D338" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="4">
+        <v>97412146</v>
+      </c>
+      <c r="B339" s="4"/>
+      <c r="C339" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D339" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="4">
+        <v>84143973</v>
+      </c>
+      <c r="B340" s="4"/>
+      <c r="C340" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D340" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="4">
+        <v>3310537</v>
+      </c>
+      <c r="B341" s="4"/>
+      <c r="C341" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D341" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="4">
+        <v>37552615</v>
+      </c>
+      <c r="B342" s="4"/>
+      <c r="C342" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D342" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E342" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="4">
+        <v>95056920</v>
+      </c>
+      <c r="B343" s="4"/>
+      <c r="C343" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D343" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="4">
+        <v>60323908</v>
+      </c>
+      <c r="B344" s="4"/>
+      <c r="C344" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E344" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="4">
+        <v>2846177</v>
+      </c>
+      <c r="B345" s="4"/>
+      <c r="C345" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D345" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="6">
+        <v>30439586</v>
+      </c>
+      <c r="B346" s="6"/>
+      <c r="C346" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D346" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="6">
+        <v>66241677</v>
+      </c>
+      <c r="B347" s="6"/>
+      <c r="C347" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D347" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="6">
+        <v>86108777</v>
+      </c>
+      <c r="B348" s="6"/>
+      <c r="C348" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D348" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="6">
+        <v>31350375</v>
+      </c>
+      <c r="B349" s="6"/>
+      <c r="C349" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D349" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="6">
+        <v>50529956</v>
+      </c>
+      <c r="B350" s="6"/>
+      <c r="C350" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D350" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="6">
+        <v>10454406</v>
+      </c>
+      <c r="B351" s="6"/>
+      <c r="C351" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D351" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="6">
+        <v>75993108</v>
+      </c>
+      <c r="B352" s="6"/>
+      <c r="C352" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="6">
+        <v>39167043</v>
+      </c>
+      <c r="B353" s="6"/>
+      <c r="C353" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D353" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="6">
+        <v>32660308</v>
+      </c>
+      <c r="B354" s="6"/>
+      <c r="C354" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D354" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="4">
+        <v>65744234</v>
+      </c>
+      <c r="B355" s="4"/>
+      <c r="C355" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D355" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="6">
+        <v>86922804</v>
+      </c>
+      <c r="B356" s="6"/>
+      <c r="C356" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D356" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="6">
+        <v>59097050</v>
+      </c>
+      <c r="B357" s="6"/>
+      <c r="C357" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D357" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="6">
+        <v>38930257</v>
+      </c>
+      <c r="B358" s="6"/>
+      <c r="C358" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D358" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="4">
+        <v>12292552</v>
+      </c>
+      <c r="B359" s="4"/>
+      <c r="C359" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D359" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="4">
+        <v>8920755</v>
+      </c>
+      <c r="B360" s="4"/>
+      <c r="C360" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="4">
+        <v>91901456</v>
+      </c>
+      <c r="B361" s="4"/>
+      <c r="C361" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="4">
+        <v>12498204</v>
+      </c>
+      <c r="B362" s="4"/>
+      <c r="C362" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="4">
+        <v>81280233</v>
+      </c>
+      <c r="B363" s="4"/>
+      <c r="C363" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="4">
+        <v>23840664</v>
+      </c>
+      <c r="B364" s="4"/>
+      <c r="C364" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="4">
+        <v>76887969</v>
+      </c>
+      <c r="B365" s="4"/>
+      <c r="C365" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D365" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="6">
+        <v>24355943</v>
+      </c>
+      <c r="B366" s="6"/>
+      <c r="C366" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D366" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="6">
+        <v>784761</v>
+      </c>
+      <c r="B367" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D367" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="6">
+        <v>73662971</v>
+      </c>
+      <c r="B368" s="6"/>
+      <c r="C368" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D368" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="6">
+        <v>10843946</v>
+      </c>
+      <c r="B369" s="6"/>
+      <c r="C369" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D369" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="6">
+        <v>76296965</v>
+      </c>
+      <c r="B370" s="6"/>
+      <c r="C370" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D370" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="6">
+        <v>22416700</v>
+      </c>
+      <c r="B371" s="6"/>
+      <c r="C371" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D371" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="6">
+        <v>55381070</v>
+      </c>
+      <c r="B372" s="6"/>
+      <c r="C372" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D372" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="6">
+        <v>18339477</v>
+      </c>
+      <c r="B373" s="6"/>
+      <c r="C373" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D373" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="6">
+        <v>7508127</v>
+      </c>
+      <c r="B374" s="6"/>
+      <c r="C374" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D374" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="6">
+        <v>21027457</v>
+      </c>
+      <c r="B375" s="6"/>
+      <c r="C375" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="6">
+        <v>57893499</v>
+      </c>
+      <c r="B376" s="6"/>
+      <c r="C376" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D376" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="6">
+        <v>25018105</v>
+      </c>
+      <c r="B377" s="6"/>
+      <c r="C377" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D377" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="6">
+        <v>14075271</v>
+      </c>
+      <c r="B378" s="6"/>
+      <c r="C378" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="6">
+        <v>97112804</v>
+      </c>
+      <c r="B379" s="6"/>
+      <c r="C379" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="4">
+        <v>55505327</v>
+      </c>
+      <c r="B380" s="4"/>
+      <c r="C380" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D380" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E380" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="4">
+        <v>63318212</v>
+      </c>
+      <c r="B381" s="4"/>
+      <c r="C381" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D381" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="4">
+        <v>2505509</v>
+      </c>
+      <c r="B382" s="4"/>
+      <c r="C382" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D382" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="4">
+        <v>46987189</v>
+      </c>
+      <c r="B383" s="4"/>
+      <c r="C383" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D383" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="6">
+        <v>76957225</v>
+      </c>
+      <c r="B384" s="6"/>
+      <c r="C384" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="6">
+        <v>73294438</v>
+      </c>
+      <c r="B385" s="6"/>
+      <c r="C385" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="6">
+        <v>49899198</v>
+      </c>
+      <c r="B386" s="6"/>
+      <c r="C386" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D386" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="6">
+        <v>82223716</v>
+      </c>
+      <c r="B387" s="6"/>
+      <c r="C387" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D387" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="6">
+        <v>81006909</v>
+      </c>
+      <c r="B388" s="6"/>
+      <c r="C388" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D388" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="6">
+        <v>96960737</v>
+      </c>
+      <c r="B389" s="6"/>
+      <c r="C389" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D389" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="6">
+        <v>30142637</v>
+      </c>
+      <c r="B390" s="6"/>
+      <c r="C390" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="6">
+        <v>13480580</v>
+      </c>
+      <c r="B391" s="6"/>
+      <c r="C391" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D391" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="6">
+        <v>49700360</v>
+      </c>
+      <c r="B392" s="6"/>
+      <c r="C392" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D392" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="6">
+        <v>39904181</v>
+      </c>
+      <c r="B393" s="6"/>
+      <c r="C393" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D393" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="6">
+        <v>38698863</v>
+      </c>
+      <c r="B394" s="6"/>
+      <c r="C394" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D394" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E394" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="6">
+        <v>73161415</v>
+      </c>
+      <c r="B395" s="6"/>
+      <c r="C395" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D395" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="6">
+        <v>59075546</v>
+      </c>
+      <c r="B396" s="6"/>
+      <c r="C396" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D396" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E396" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="6">
+        <v>16077062</v>
+      </c>
+      <c r="B397" s="6"/>
+      <c r="C397" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D397" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="6">
+        <v>79857838</v>
+      </c>
+      <c r="B398" s="6"/>
+      <c r="C398" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D398" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="6">
+        <v>14076481</v>
+      </c>
+      <c r="B399" s="6"/>
+      <c r="C399" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D399" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="6">
+        <v>61412231</v>
+      </c>
+      <c r="B400" s="6"/>
+      <c r="C400" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D400" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E400" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="6">
+        <v>21732378</v>
+      </c>
+      <c r="B401" s="6"/>
+      <c r="C401" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D401" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="6">
+        <v>21895678</v>
+      </c>
+      <c r="B402" s="6"/>
+      <c r="C402" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D402" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E402" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>90939142</v>
+      </c>
+      <c r="B403" s="4"/>
+      <c r="C403" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D403" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>55791584</v>
+      </c>
+      <c r="B404" s="4"/>
+      <c r="C404" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D404" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E404" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>16617935</v>
+      </c>
+      <c r="B405" s="4"/>
+      <c r="C405" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D405" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
+        <v>53793236</v>
+      </c>
+      <c r="B406" s="4"/>
+      <c r="C406" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D406" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E406" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
+        <v>77952725</v>
+      </c>
+      <c r="B407" s="4"/>
+      <c r="C407" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D407" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
+        <v>19787277</v>
+      </c>
+      <c r="B408" s="4"/>
+      <c r="C408" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D408" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E408" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
+        <v>35522676</v>
+      </c>
+      <c r="B409" s="4"/>
+      <c r="C409" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D409" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
+        <v>45441963</v>
+      </c>
+      <c r="B410" s="4"/>
+      <c r="C410" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D410" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
+        <v>42911330</v>
+      </c>
+      <c r="B411" s="4"/>
+      <c r="C411" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D411" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
+        <v>60968980</v>
+      </c>
+      <c r="B412" s="4"/>
+      <c r="C412" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D412" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E412" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
+        <v>54738077</v>
+      </c>
+      <c r="B413" s="4"/>
+      <c r="C413" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D413" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
+        <v>93028380</v>
+      </c>
+      <c r="B414" s="4"/>
+      <c r="C414" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D414" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E414" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
+        <v>3536235</v>
+      </c>
+      <c r="B415" s="4"/>
+      <c r="C415" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D415" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E415" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
+        <v>4627679</v>
+      </c>
+      <c r="B416" s="4"/>
+      <c r="C416" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D416" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E416" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
+        <v>47779376</v>
+      </c>
+      <c r="B417" s="4"/>
+      <c r="C417" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D417" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E417" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="6">
+        <v>70649878</v>
+      </c>
+      <c r="B418" s="6"/>
+      <c r="C418" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D418" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E418" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="6">
+        <v>92854596</v>
+      </c>
+      <c r="B419" s="6"/>
+      <c r="C419" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D419" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E419" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="6">
+        <v>9747035</v>
+      </c>
+      <c r="B420" s="6"/>
+      <c r="C420" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D420" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E420" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="6">
+        <v>82238741</v>
+      </c>
+      <c r="B421" s="6"/>
+      <c r="C421" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D421" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E421" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="6">
+        <v>95159251</v>
+      </c>
+      <c r="B422" s="6"/>
+      <c r="C422" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D422" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E422" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="6">
+        <v>21105351</v>
+      </c>
+      <c r="B423" s="6"/>
+      <c r="C423" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D423" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E423" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="6">
+        <v>51522999</v>
+      </c>
+      <c r="B424" s="6"/>
+      <c r="C424" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D424" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E424" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="6">
+        <v>80010079</v>
+      </c>
+      <c r="B425" s="6"/>
+      <c r="C425" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D425" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="6">
+        <v>3812220</v>
+      </c>
+      <c r="B426" s="6"/>
+      <c r="C426" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D426" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E426" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="6">
+        <v>32270280</v>
+      </c>
+      <c r="B427" s="6"/>
+      <c r="C427" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D427" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="6">
+        <v>20551073</v>
+      </c>
+      <c r="B428" s="6"/>
+      <c r="C428" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D428" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="6">
+        <v>5772573</v>
+      </c>
+      <c r="B429" s="6"/>
+      <c r="C429" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D429" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="6">
+        <v>1387960</v>
+      </c>
+      <c r="B430" s="6"/>
+      <c r="C430" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D430" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E430" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="6">
+        <v>73431178</v>
+      </c>
+      <c r="B431" s="6"/>
+      <c r="C431" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D431" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E431" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="6">
+        <v>833669</v>
+      </c>
+      <c r="B432" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D432" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E432" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="6">
+        <v>40666374</v>
+      </c>
+      <c r="B433" s="6"/>
+      <c r="C433" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D433" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="6">
+        <v>41612114</v>
+      </c>
+      <c r="B434" s="6"/>
+      <c r="C434" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D434" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E434" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="6">
+        <v>65683169</v>
+      </c>
+      <c r="B435" s="6"/>
+      <c r="C435" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D435" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="6">
+        <v>16310573</v>
+      </c>
+      <c r="B436" s="6"/>
+      <c r="C436" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D436" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E436" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="6">
+        <v>21493118</v>
+      </c>
+      <c r="B437" s="6"/>
+      <c r="C437" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D437" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="4">
+        <v>25552022</v>
+      </c>
+      <c r="B438" s="4"/>
+      <c r="C438" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D438" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E438" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="4">
+        <v>11617635</v>
+      </c>
+      <c r="B439" s="4"/>
+      <c r="C439" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D439" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="4">
+        <v>17059085</v>
+      </c>
+      <c r="B440" s="4"/>
+      <c r="C440" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D440" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E440" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="4">
+        <v>21265066</v>
+      </c>
+      <c r="B441" s="4"/>
+      <c r="C441" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D441" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E441" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="4">
+        <v>99702289</v>
+      </c>
+      <c r="B442" s="4"/>
+      <c r="C442" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D442" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E442" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="4">
+        <v>72669027</v>
+      </c>
+      <c r="B443" s="4"/>
+      <c r="C443" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D443" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="4">
+        <v>72123799</v>
+      </c>
+      <c r="B444" s="4"/>
+      <c r="C444" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D444" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E444" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="4">
+        <v>27874186</v>
+      </c>
+      <c r="B445" s="4"/>
+      <c r="C445" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D445" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E445" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="4">
+        <v>24294632</v>
+      </c>
+      <c r="B446" s="4"/>
+      <c r="C446" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D446" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E446" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="4">
+        <v>30478174</v>
+      </c>
+      <c r="B447" s="4"/>
+      <c r="C447" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D447" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E447" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="4">
+        <v>29009808</v>
+      </c>
+      <c r="B448" s="4"/>
+      <c r="C448" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D448" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E448" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="6">
+        <v>18319543</v>
+      </c>
+      <c r="B449" s="6"/>
+      <c r="C449" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D449" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E449" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="6">
+        <v>54884422</v>
+      </c>
+      <c r="B450" s="6"/>
+      <c r="C450" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D450" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E450" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="6">
+        <v>89202228</v>
+      </c>
+      <c r="B451" s="6"/>
+      <c r="C451" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D451" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E451" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="6">
+        <v>53845737</v>
+      </c>
+      <c r="B452" s="6"/>
+      <c r="C452" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D452" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E452" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="6">
+        <v>67907485</v>
+      </c>
+      <c r="B453" s="6"/>
+      <c r="C453" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D453" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E453" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="6">
+        <v>93656387</v>
+      </c>
+      <c r="B454" s="6"/>
+      <c r="C454" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D454" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E454" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="6">
+        <v>98612777</v>
+      </c>
+      <c r="B455" s="6"/>
+      <c r="C455" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D455" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E455" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="6">
+        <v>18834202</v>
+      </c>
+      <c r="B456" s="6"/>
+      <c r="C456" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D456" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E456" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="6">
+        <v>37361091</v>
+      </c>
+      <c r="B457" s="6"/>
+      <c r="C457" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D457" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E457" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="6">
+        <v>88308554</v>
+      </c>
+      <c r="B458" s="6"/>
+      <c r="C458" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D458" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E458" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="6">
+        <v>88323138</v>
+      </c>
+      <c r="B459" s="6"/>
+      <c r="C459" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D459" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E459" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="6">
+        <v>98693913</v>
+      </c>
+      <c r="B460" s="6"/>
+      <c r="C460" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D460" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E460" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="6">
+        <v>67598950</v>
+      </c>
+      <c r="B461" s="6"/>
+      <c r="C461" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D461" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E461" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="4">
+        <v>14039647</v>
+      </c>
+      <c r="B462" s="4"/>
+      <c r="C462" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D462" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E462" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="4">
+        <v>1496492</v>
+      </c>
+      <c r="B463" s="4"/>
+      <c r="C463" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D463" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E463" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="4">
+        <v>34546595</v>
+      </c>
+      <c r="B464" s="4"/>
+      <c r="C464" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D464" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E464" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="4">
+        <v>10118338</v>
+      </c>
+      <c r="B465" s="4"/>
+      <c r="C465" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D465" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E465" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="4">
+        <v>97611983</v>
+      </c>
+      <c r="B466" s="4"/>
+      <c r="C466" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D466" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E466" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="4">
+        <v>26221462</v>
+      </c>
+      <c r="B467" s="4"/>
+      <c r="C467" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D467" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="4">
+        <v>92905684</v>
+      </c>
+      <c r="B468" s="4"/>
+      <c r="C468" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D468" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E468" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="4">
+        <v>38113241</v>
+      </c>
+      <c r="B469" s="4"/>
+      <c r="C469" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D469" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="4">
+        <v>20825608</v>
+      </c>
+      <c r="B470" s="4"/>
+      <c r="C470" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D470" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E470" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="4">
+        <v>32164953</v>
+      </c>
+      <c r="B471" s="4"/>
+      <c r="C471" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D471" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E471" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="4">
+        <v>44298949</v>
+      </c>
+      <c r="B472" s="4"/>
+      <c r="C472" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D472" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E472" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="6">
+        <v>23469021</v>
+      </c>
+      <c r="B473" s="6"/>
+      <c r="C473" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D473" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E473" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="6">
+        <v>51294769</v>
+      </c>
+      <c r="B474" s="6"/>
+      <c r="C474" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D474" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E474" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="6">
+        <v>42869950</v>
+      </c>
+      <c r="B475" s="6"/>
+      <c r="C475" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D475" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E475" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="6">
+        <v>90763441</v>
+      </c>
+      <c r="B476" s="6"/>
+      <c r="C476" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D476" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E476" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="6">
+        <v>48435184</v>
+      </c>
+      <c r="B477" s="6"/>
+      <c r="C477" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D477" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E477" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="6">
+        <v>16147421</v>
+      </c>
+      <c r="B478" s="6"/>
+      <c r="C478" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D478" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E478" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="6">
+        <v>73778387</v>
+      </c>
+      <c r="B479" s="6"/>
+      <c r="C479" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D479" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E479" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="6">
+        <v>18463159</v>
+      </c>
+      <c r="B480" s="6"/>
+      <c r="C480" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D480" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E480" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="6">
+        <v>88575038</v>
+      </c>
+      <c r="B481" s="6"/>
+      <c r="C481" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D481" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E481" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="3">
+        <v>89392042</v>
+      </c>
+      <c r="B482" s="3"/>
+      <c r="C482" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D482" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E482" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="7">
+        <v>84694046</v>
+      </c>
+      <c r="B483" s="7"/>
+      <c r="C483" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D483" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E483" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="7">
+        <v>60803375</v>
+      </c>
+      <c r="B484" s="7"/>
+      <c r="C484" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D484" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E484" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="7">
+        <v>78135052</v>
+      </c>
+      <c r="B485" s="7"/>
+      <c r="C485" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D485" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E485" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="7">
+        <v>2048817</v>
+      </c>
+      <c r="B486" s="7"/>
+      <c r="C486" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D486" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E486" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="7">
+        <v>94349742</v>
+      </c>
+      <c r="B487" s="7"/>
+      <c r="C487" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D487" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E487" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="7">
+        <v>10431791</v>
+      </c>
+      <c r="B488" s="7"/>
+      <c r="C488" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D488" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E488" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="7">
+        <v>70054204</v>
+      </c>
+      <c r="B489" s="7"/>
+      <c r="C489" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D489" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E489" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="7">
+        <v>14898755</v>
+      </c>
+      <c r="B490" s="7"/>
+      <c r="C490" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D490" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E490" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="7">
+        <v>26195107</v>
+      </c>
+      <c r="B491" s="7"/>
+      <c r="C491" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D491" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E491" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="3">
+        <v>5781632</v>
+      </c>
+      <c r="B492" s="3"/>
+      <c r="C492" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D492" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E492" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="3">
+        <v>87386252</v>
+      </c>
+      <c r="B493" s="3"/>
+      <c r="C493" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D493" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E493" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="3">
+        <v>28877261</v>
+      </c>
+      <c r="B494" s="3"/>
+      <c r="C494" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D494" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E494" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="3">
+        <v>28029400</v>
+      </c>
+      <c r="B495" s="3"/>
+      <c r="C495" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D495" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E495" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="3">
+        <v>50952748</v>
+      </c>
+      <c r="B496" s="3"/>
+      <c r="C496" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D496" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E496" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="3">
+        <v>21771135</v>
+      </c>
+      <c r="B497" s="3"/>
+      <c r="C497" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D497" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E497" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="3">
+        <v>93999263</v>
+      </c>
+      <c r="B498" s="3"/>
+      <c r="C498" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D498" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E498" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="3">
+        <v>95369287</v>
+      </c>
+      <c r="B499" s="3"/>
+      <c r="C499" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D499" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E499" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="3">
+        <v>23399710</v>
+      </c>
+      <c r="B500" s="3"/>
+      <c r="C500" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D500" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E500" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="3">
+        <v>84119335</v>
+      </c>
+      <c r="B501" s="3"/>
+      <c r="C501" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D501" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E501" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="3">
+        <v>10191024</v>
+      </c>
+      <c r="B502" s="3"/>
+      <c r="C502" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D502" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E502" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="3">
+        <v>7685385</v>
+      </c>
+      <c r="B503" s="3"/>
+      <c r="C503" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D503" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E503" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="3">
+        <v>49813065</v>
+      </c>
+      <c r="B504" s="3"/>
+      <c r="C504" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D504" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E504" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="7">
+        <v>81987411</v>
+      </c>
+      <c r="B505" s="7"/>
+      <c r="C505" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D505" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E505" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="7">
+        <v>51092420</v>
+      </c>
+      <c r="B506" s="7"/>
+      <c r="C506" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D506" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E506" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="7">
+        <v>7115210</v>
+      </c>
+      <c r="B507" s="7"/>
+      <c r="C507" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D507" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E507" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="7">
+        <v>1422117</v>
+      </c>
+      <c r="B508" s="7"/>
+      <c r="C508" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D508" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E508" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="7">
+        <v>60667773</v>
+      </c>
+      <c r="B509" s="7"/>
+      <c r="C509" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D509" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E509" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="7">
+        <v>40796720</v>
+      </c>
+      <c r="B510" s="7"/>
+      <c r="C510" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D510" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E510" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="7">
+        <v>30954528</v>
+      </c>
+      <c r="B511" s="7"/>
+      <c r="C511" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D511" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E511" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="7">
+        <v>38553557</v>
+      </c>
+      <c r="B512" s="7"/>
+      <c r="C512" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D512" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E512" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="7">
+        <v>91355495</v>
+      </c>
+      <c r="B513" s="7"/>
+      <c r="C513" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E513" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="7">
+        <v>46780451</v>
+      </c>
+      <c r="B514" s="7"/>
+      <c r="C514" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D514" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E514" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="7">
+        <v>27058305</v>
+      </c>
+      <c r="B515" s="7"/>
+      <c r="C515" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D515" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E515" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="7">
+        <v>47136261</v>
+      </c>
+      <c r="B516" s="7"/>
+      <c r="C516" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D516" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E516" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="7">
+        <v>14796292</v>
+      </c>
+      <c r="B517" s="7"/>
+      <c r="C517" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D517" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E517" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="7">
+        <v>36136986</v>
+      </c>
+      <c r="B518" s="7"/>
+      <c r="C518" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D518" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E518" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="3">
+        <v>37342782</v>
+      </c>
+      <c r="B519" s="3"/>
+      <c r="C519" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D519" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E519" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="3">
+        <v>98419026</v>
+      </c>
+      <c r="B520" s="3"/>
+      <c r="C520" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D520" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E520" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="3">
+        <v>14474980</v>
+      </c>
+      <c r="B521" s="3"/>
+      <c r="C521" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D521" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E521" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="3">
+        <v>82130968</v>
+      </c>
+      <c r="B522" s="3"/>
+      <c r="C522" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D522" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E522" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="3">
+        <v>62509389</v>
+      </c>
+      <c r="B523" s="3"/>
+      <c r="C523" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D523" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E523" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="3">
+        <v>78647959</v>
+      </c>
+      <c r="B524" s="3"/>
+      <c r="C524" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D524" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E524" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="3">
+        <v>50359865</v>
+      </c>
+      <c r="B525" s="3"/>
+      <c r="C525" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D525" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E525" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="3">
+        <v>60154576</v>
+      </c>
+      <c r="B526" s="3"/>
+      <c r="C526" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D526" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E526" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="3">
+        <v>19736103</v>
+      </c>
+      <c r="B527" s="3"/>
+      <c r="C527" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D527" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E527" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="3">
+        <v>20804486</v>
+      </c>
+      <c r="B528" s="3"/>
+      <c r="C528" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D528" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E528" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="3">
+        <v>21690114</v>
+      </c>
+      <c r="B529" s="3"/>
+      <c r="C529" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D529" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E529" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="3">
+        <v>94714353</v>
+      </c>
+      <c r="B530" s="3"/>
+      <c r="C530" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D530" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E530" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="3">
+        <v>78161902</v>
+      </c>
+      <c r="B531" s="3"/>
+      <c r="C531" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D531" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E531" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="3">
+        <v>66120276</v>
+      </c>
+      <c r="B532" s="3"/>
+      <c r="C532" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D532" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E532" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="3">
+        <v>57500652</v>
+      </c>
+      <c r="B533" s="3"/>
+      <c r="C533" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D533" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E533" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="3">
+        <v>29033070</v>
+      </c>
+      <c r="B534" s="3"/>
+      <c r="C534" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D534" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E534" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="3">
+        <v>3594038</v>
+      </c>
+      <c r="B535" s="3"/>
+      <c r="C535" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D535" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E535" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="3">
+        <v>34129731</v>
+      </c>
+      <c r="B536" s="3"/>
+      <c r="C536" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D536" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E536" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="3">
+        <v>99203891</v>
+      </c>
+      <c r="B537" s="3"/>
+      <c r="C537" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D537" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E537" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="3">
+        <v>80267088</v>
+      </c>
+      <c r="B538" s="3"/>
+      <c r="C538" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D538" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E538" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="3">
+        <v>52850676</v>
+      </c>
+      <c r="B539" s="3"/>
+      <c r="C539" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D539" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E539" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="3">
+        <v>7426659</v>
+      </c>
+      <c r="B540" s="3"/>
+      <c r="C540" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D540" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E540" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="3">
+        <v>39311193</v>
+      </c>
+      <c r="B541" s="3"/>
+      <c r="C541" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D541" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E541" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="3">
+        <v>80190885</v>
+      </c>
+      <c r="B542" s="3"/>
+      <c r="C542" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D542" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E542" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A542" xr:uid="{C2AF936B-74CB-4BC8-A75C-F3B8F0D31E6B}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="999999"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>